--- a/medicine/Psychotrope/Brasserie_des_Fagnes/Brasserie_des_Fagnes.xlsx
+++ b/medicine/Psychotrope/Brasserie_des_Fagnes/Brasserie_des_Fagnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie des Fagnes est une brasserie belge située à Mariembourg, dans la commune de Couvin. Elle brasse entre autres la bière "Fagnes".
-La brasserie produit chaque année une cinquantaine de bières différentes. Des bières classiques et des bières de saison qui sont en général plus fruitées au printemps, légères et rafraîchissantes en été, plutôt ambrées dès l'automne avec plus de corps et de goût et plus alcoolisées en hiver avec une tendance vers des brunes fortes[1].
+La brasserie produit chaque année une cinquantaine de bières différentes. Des bières classiques et des bières de saison qui sont en général plus fruitées au printemps, légères et rafraîchissantes en été, plutôt ambrées dès l'automne avec plus de corps et de goût et plus alcoolisées en hiver avec une tendance vers des brunes fortes.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Liste des bières brassées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La Fagnes se décline en cinq variétés :
 Fagnes Blonde (7.5°)
@@ -562,7 +576,9 @@
           <t>Musée - Brasserie Moderne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancienne brasserie Degauquier de Chimay datant de 1858 se trouve à l'entrée de la brasserie dans un parfait état de conservation. La brasserie Degauquier fut en activité jusqu'en 1977.
 </t>
